--- a/scripts/4221-p1.xlsx
+++ b/scripts/4221-p1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\Documents\BT5110-tutorials\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBBD458-AC37-4F00-9247-BFE261CD19EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80DABE2-DB7F-4E50-A9B6-252C55AF3F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fabian" sheetId="1" r:id="rId1"/>
@@ -8324,7 +8324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -8377,6 +8377,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -8419,7 +8426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -8443,9 +8450,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8454,6 +8458,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8700,7 +8711,7 @@
                   <c:v>6972.84</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11535.16</c:v>
+                  <c:v>19114.490000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>15251.17</c:v>
@@ -8796,7 +8807,7 @@
                   <c:v>5813.11</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.65</c:v>
+                  <c:v>14.12</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>9.7899999999999991</c:v>
@@ -8850,7 +8861,7 @@
                   <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5276.5</c:v>
+                  <c:v>8103.61</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>9288.85</c:v>
@@ -10132,30 +10143,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V70" sqref="V70"/>
+    <sheetView tabSelected="1" topLeftCell="T29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="41.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="53.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="79.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="20" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="53.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="79.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" style="2" customWidth="1"/>
     <col min="20" max="20" width="83.140625" style="2" customWidth="1"/>
     <col min="21" max="21" width="54.5703125" style="2" customWidth="1"/>
@@ -14122,22 +14133,22 @@
       </c>
       <c r="U41" s="3"/>
       <c r="V41" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="W41" s="3">
-        <v>11535.16</v>
+        <v>810</v>
+      </c>
+      <c r="W41" s="33">
+        <v>19114.490000000002</v>
       </c>
       <c r="X41" s="14">
         <f t="shared" si="10"/>
-        <v>11535.16</v>
+        <v>19114.490000000002</v>
       </c>
       <c r="Y41" s="2">
         <f>IF(X41&gt;='creteria &amp; stat'!$S$3,'creteria &amp; stat'!$T$3,IF(X41&gt;='creteria &amp; stat'!$S$4,'creteria &amp; stat'!$T$4,IF(X41&gt;'creteria &amp; stat'!$S$5,'creteria &amp; stat'!$T$5,IF(X41&lt;&gt;0,'creteria &amp; stat'!$T$6,'creteria &amp; stat'!$T$8))))</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AA41" s="2">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AB41" s="10" t="s">
         <v>29</v>
@@ -14147,11 +14158,11 @@
       </c>
       <c r="AD41" s="2">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE41" s="2" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Q2: (a) Good; (b) Good; (c) Good; SUBTOTAL:(5/5). Q3: Good (tier 3) (2/5); </v>
+        <v xml:space="preserve">Q2: (a) Good; (b) Good; (c) Good; SUBTOTAL:(5/5). Q3: Good (tier 2) (3/5); </v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -16878,100 +16889,100 @@
         <v xml:space="preserve">Q2: (a) Good; (b) Good; (c) Good; SUBTOTAL:(5/5). Q3: Good (tier 3) (2/5); </v>
       </c>
     </row>
-    <row r="70" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+    <row r="70" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>799</v>
-      </c>
-      <c r="D70" s="27" t="s">
+      <c r="C70" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="D70" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="E70" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>792</v>
-      </c>
-      <c r="G70" s="27">
-        <v>0</v>
-      </c>
-      <c r="H70" s="27" t="s">
+      <c r="E70" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="G70" s="26">
+        <v>0</v>
+      </c>
+      <c r="H70" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="I70" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="J70" s="28" t="s">
-        <v>792</v>
-      </c>
-      <c r="K70" s="27">
-        <v>0</v>
-      </c>
-      <c r="L70" s="27" t="s">
+      <c r="I70" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="K70" s="26">
+        <v>0</v>
+      </c>
+      <c r="L70" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="M70" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="N70" s="28" t="s">
-        <v>792</v>
-      </c>
-      <c r="O70" s="27">
-        <v>0</v>
-      </c>
-      <c r="P70" s="27" t="str">
+      <c r="M70" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="O70" s="26">
+        <v>0</v>
+      </c>
+      <c r="P70" s="26" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">(a) Good; (b) Good; (c) Good; </v>
       </c>
-      <c r="Q70" s="27" t="str">
+      <c r="Q70" s="26" t="str">
         <f t="shared" si="15"/>
         <v>Q2: (a) Good; (b) Good; (c) Good; SUBTOTAL:</v>
       </c>
-      <c r="R70" s="27" t="str">
+      <c r="R70" s="26" t="str">
         <f t="shared" si="16"/>
         <v>(5/5)</v>
       </c>
-      <c r="S70" s="27" t="s">
+      <c r="S70" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="T70" s="27" t="s">
+      <c r="T70" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="U70" s="27"/>
-      <c r="V70" s="29" t="s">
+      <c r="U70" s="26"/>
+      <c r="V70" s="28" t="s">
         <v>810</v>
       </c>
-      <c r="W70" s="27">
+      <c r="W70" s="26">
         <v>105135.07</v>
       </c>
-      <c r="X70" s="30">
+      <c r="X70" s="29">
         <f t="shared" si="17"/>
         <v>105135.07</v>
       </c>
-      <c r="Y70" s="29">
+      <c r="Y70" s="28">
         <f>IF(X70&gt;='creteria &amp; stat'!$S$3,'creteria &amp; stat'!$T$3,IF(X70&gt;='creteria &amp; stat'!$S$4,'creteria &amp; stat'!$T$4,IF(X70&gt;'creteria &amp; stat'!$S$5,'creteria &amp; stat'!$T$5,IF(X70&lt;&gt;0,'creteria &amp; stat'!$T$6,'creteria &amp; stat'!$T$8))))</f>
         <v>-2</v>
       </c>
-      <c r="AA70" s="29">
+      <c r="AA70" s="28">
         <f t="shared" si="18"/>
         <v>-2</v>
       </c>
-      <c r="AB70" s="31" t="s">
+      <c r="AB70" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AC70" s="26" t="s">
-        <v>799</v>
-      </c>
-      <c r="AD70" s="29">
+      <c r="AC70" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="AD70" s="28">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="AE70" s="29" t="str">
+      <c r="AE70" s="28" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">Q2: (a) Good; (b) Good; (c) Good; SUBTOTAL:(5/5). Q3: Good (tier 2) (3/5); </v>
       </c>
@@ -17236,12 +17247,12 @@
       <c r="V73" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="W73" s="3">
-        <v>9.65</v>
+      <c r="W73" s="33">
+        <v>14.12</v>
       </c>
       <c r="X73" s="14">
         <f t="shared" si="17"/>
-        <v>9.65</v>
+        <v>14.12</v>
       </c>
       <c r="Y73" s="2">
         <f>IF(X73&gt;='creteria &amp; stat'!$S$3,'creteria &amp; stat'!$T$3,IF(X73&gt;='creteria &amp; stat'!$S$4,'creteria &amp; stat'!$T$4,IF(X73&gt;'creteria &amp; stat'!$S$5,'creteria &amp; stat'!$T$5,IF(X73&lt;&gt;0,'creteria &amp; stat'!$T$6,'creteria &amp; stat'!$T$8))))</f>
@@ -18993,12 +19004,12 @@
       <c r="V91" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="W91" s="3">
-        <v>5276.5</v>
+      <c r="W91" s="32">
+        <v>8103.61</v>
       </c>
       <c r="X91" s="14">
         <f t="shared" si="17"/>
-        <v>5276.5</v>
+        <v>8103.61</v>
       </c>
       <c r="Y91" s="2">
         <f>IF(X91&gt;='creteria &amp; stat'!$S$3,'creteria &amp; stat'!$T$3,IF(X91&gt;='creteria &amp; stat'!$S$4,'creteria &amp; stat'!$T$4,IF(X91&gt;'creteria &amp; stat'!$S$5,'creteria &amp; stat'!$T$5,IF(X91&lt;&gt;0,'creteria &amp; stat'!$T$6,'creteria &amp; stat'!$T$8))))</f>
@@ -22761,7 +22772,7 @@
         <v xml:space="preserve">(a) Good; (b) Good; (c) Good; </v>
       </c>
       <c r="Q130" s="3" t="str">
-        <f t="shared" ref="Q130:Q161" si="29">_xlfn.CONCAT("Q2: ",P130,"SUBTOTAL:")</f>
+        <f t="shared" ref="Q130:Q153" si="29">_xlfn.CONCAT("Q2: ",P130,"SUBTOTAL:")</f>
         <v>Q2: (a) Good; (b) Good; (c) Good; SUBTOTAL:</v>
       </c>
       <c r="R130" s="3" t="str">
@@ -22781,7 +22792,7 @@
         <v>809.82</v>
       </c>
       <c r="X130" s="14">
-        <f t="shared" ref="X130:X161" si="31">IF(W130="TIMEOUT",1000000,W130)</f>
+        <f t="shared" ref="X130:X153" si="31">IF(W130="TIMEOUT",1000000,W130)</f>
         <v>809.82</v>
       </c>
       <c r="Y130" s="2">
@@ -22789,7 +22800,7 @@
         <v>-4</v>
       </c>
       <c r="AA130" s="2">
-        <f t="shared" ref="AA130:AA161" si="32">Y130+Z130</f>
+        <f t="shared" ref="AA130:AA153" si="32">Y130+Z130</f>
         <v>-4</v>
       </c>
       <c r="AB130" s="10" t="s">
@@ -25054,7 +25065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BF52C3-F2D4-4193-98F2-29DCD6FD6579}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -25252,11 +25263,11 @@
       </c>
       <c r="F4" s="15">
         <f>AVERAGE(Fabian!AA:AA)</f>
-        <v>-2.9736842105263159</v>
+        <v>-2.9671052631578947</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>2.0263157894736841</v>
+        <v>2.0328947368421053</v>
       </c>
       <c r="I4" t="s">
         <v>766</v>
@@ -25287,7 +25298,7 @@
       </c>
       <c r="U4">
         <f>COUNTIF(Fabian!Y:Y,-2)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -25347,7 +25358,7 @@
       </c>
       <c r="U5">
         <f>COUNTIF(Fabian!Y:Y,-3)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -25390,28 +25401,28 @@
       <c r="P7">
         <v>-1</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="S7" s="23"/>
+      <c r="S7" s="31"/>
       <c r="T7">
         <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="S8" s="23"/>
+      <c r="S8" s="31"/>
       <c r="T8">
         <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="31" t="s">
         <v>788</v>
       </c>
-      <c r="S9" s="23"/>
+      <c r="S9" s="31"/>
       <c r="T9">
         <v>0</v>
       </c>
